--- a/zServicos.xlsx
+++ b/zServicos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,45 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>servicio refacturizado</t>
+  </si>
+  <si>
+    <t>servicio a refactorizar</t>
+  </si>
+  <si>
+    <t>EmisionElemento</t>
+  </si>
+  <si>
+    <t>EmisionRecibosCobroDeudores</t>
+  </si>
+  <si>
+    <t>EmisionRecibos</t>
+  </si>
+  <si>
+    <t>EmisionOrdenesPagoYComprobantesRetenciones</t>
+  </si>
+  <si>
+    <t>EmisionManualCreditosCobranza</t>
+  </si>
+  <si>
+    <t>EmisionConFacturaDeCredito</t>
+  </si>
+  <si>
+    <t>EmisionCartasPorte</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,13 +55,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -44,19 +95,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +194,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +402,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/zServicos.xlsx
+++ b/zServicos.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>Servicio refactorizado</t>
   </si>
@@ -315,6 +315,36 @@
   </si>
   <si>
     <t>EmisionCartasPorte</t>
+  </si>
+  <si>
+    <t>EntregaMercaderiaSinFacturaElemento</t>
+  </si>
+  <si>
+    <t>EntregaMercaderiaSinFacturaConPedido</t>
+  </si>
+  <si>
+    <t>EntregaMercaderiaSinFacturaConPedidoParaExportacion</t>
+  </si>
+  <si>
+    <t>EntregaMercaderiaSinFacturaNiPedido</t>
+  </si>
+  <si>
+    <t>ListaElemento</t>
+  </si>
+  <si>
+    <t>ListaHischeq</t>
+  </si>
+  <si>
+    <t>ListaKardex</t>
+  </si>
+  <si>
+    <t>ListaMayorSalidaExcel</t>
+  </si>
+  <si>
+    <t>ListaSaldosPedidosSalidaExcel</t>
+  </si>
+  <si>
+    <t>ListaSituacionTrigoUnaFechaSalidaExcel</t>
   </si>
   <si>
     <t>servicio refacturizado</t>
@@ -354,7 +384,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
@@ -362,7 +391,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="DejaVu Sans"/>
@@ -370,7 +398,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
@@ -505,7 +532,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -575,6 +602,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -663,20 +702,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="17.9"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="56.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -692,115 +731,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -808,19 +847,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11"/>
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -828,25 +867,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>31</v>
       </c>
@@ -854,13 +893,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="13"/>
       <c r="B29" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -868,19 +907,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
       <c r="B32" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
         <v>38</v>
       </c>
@@ -888,49 +927,49 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11"/>
       <c r="B35" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11"/>
       <c r="B38" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11"/>
       <c r="B39" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
@@ -938,19 +977,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
         <v>51</v>
       </c>
@@ -958,91 +997,91 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11"/>
       <c r="B45" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11"/>
       <c r="B48" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11"/>
       <c r="B50" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="11"/>
       <c r="B52" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11"/>
       <c r="B54" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="11"/>
       <c r="B55" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="11"/>
       <c r="B56" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="11"/>
       <c r="B57" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="13"/>
       <c r="B58" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
         <v>67</v>
       </c>
@@ -1050,13 +1089,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
         <v>70</v>
       </c>
@@ -1064,13 +1103,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="13"/>
       <c r="B62" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>73</v>
       </c>
@@ -1078,37 +1117,37 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
       <c r="B64" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
       <c r="B65" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5"/>
       <c r="B67" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7"/>
       <c r="B68" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
         <v>80</v>
       </c>
@@ -1116,13 +1155,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
         <v>83</v>
       </c>
@@ -1130,43 +1169,43 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5"/>
       <c r="B72" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5"/>
       <c r="B73" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5"/>
       <c r="B74" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5"/>
       <c r="B75" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7"/>
       <c r="B77" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
         <v>91</v>
       </c>
@@ -1174,34 +1213,86 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="16"/>
       <c r="B79" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="16"/>
       <c r="B80" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="16"/>
       <c r="B81" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="16"/>
       <c r="B82" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1223,57 +1314,57 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>99</v>
+      <c r="A1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22" t="s">
         <v>97</v>
       </c>
     </row>

--- a/zServicos.xlsx
+++ b/zServicos.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
   <si>
     <t>Servicio refactorizado</t>
   </si>
@@ -345,6 +345,99 @@
   </si>
   <si>
     <t>ListaSituacionTrigoUnaFechaSalidaExcel</t>
+  </si>
+  <si>
+    <t>LimpiezaElemento</t>
+  </si>
+  <si>
+    <t>LimpiaMercaderiaAEntregarDonaciones</t>
+  </si>
+  <si>
+    <t>LimpiezaCuentasCorrientes</t>
+  </si>
+  <si>
+    <t>LimpiezaEstadisticas</t>
+  </si>
+  <si>
+    <t>LimpiezaKardex</t>
+  </si>
+  <si>
+    <t>LimpiezaLibroCompras</t>
+  </si>
+  <si>
+    <t>LimpiezaLibroIva</t>
+  </si>
+  <si>
+    <t>LimpiezaLibroRecibos</t>
+  </si>
+  <si>
+    <t>FacturacionElemento</t>
+  </si>
+  <si>
+    <t>FacturacionManualFletes</t>
+  </si>
+  <si>
+    <t>FacturacionMercaderiaYaEntregada</t>
+  </si>
+  <si>
+    <t>FacturacionPedidos</t>
+  </si>
+  <si>
+    <t>FacturacionPedidosSinEntregaMercaderia</t>
+  </si>
+  <si>
+    <t>FacturacionPedidosSinEntregaMercaderiaExportacion</t>
+  </si>
+  <si>
+    <t>FacturacionSinPedidos</t>
+  </si>
+  <si>
+    <t>FacturacionSinPedidosConceptosVariosExportacion</t>
+  </si>
+  <si>
+    <t>FacturacionSinPedidosMercaderiaAEntregar</t>
+  </si>
+  <si>
+    <t>ImpresionArchivoElemento</t>
+  </si>
+  <si>
+    <t>ImpresionArchivoTelefono</t>
+  </si>
+  <si>
+    <t>ImpresionArchivoTelefonoSalidaExcel</t>
+  </si>
+  <si>
+    <t>ImpresionElemento</t>
+  </si>
+  <si>
+    <t>ImpresionCuentasOtrosDeudores</t>
+  </si>
+  <si>
+    <t>ImpresionFacturaCredito</t>
+  </si>
+  <si>
+    <t>ImpresionLibroBancos</t>
+  </si>
+  <si>
+    <t>ImpresionLibroCartasPorteEmitidas</t>
+  </si>
+  <si>
+    <t>ImpresionLibroOrdenesPago</t>
+  </si>
+  <si>
+    <t>ImpresionTotalesMovimientosStockMensual</t>
+  </si>
+  <si>
+    <t>ImpresorElemento</t>
+  </si>
+  <si>
+    <t>ImpresorCarteraDocumentosACobrar</t>
+  </si>
+  <si>
+    <t>ImpresorPreciosPromedios</t>
+  </si>
+  <si>
+    <t>ImpresorPreciosPromediosTrigo</t>
   </si>
   <si>
     <t>servicio refacturizado</t>
@@ -360,7 +453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -384,28 +477,22 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="DejaVu Sans"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -532,92 +619,108 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -702,20 +805,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.9"/>
+  <sheetFormatPr defaultRowHeight="16.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="49.5951417004049"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -723,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -731,115 +834,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -847,19 +950,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11"/>
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -867,25 +970,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>31</v>
       </c>
@@ -893,13 +996,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="13"/>
       <c r="B29" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -907,19 +1010,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
       <c r="B32" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
         <v>38</v>
       </c>
@@ -927,49 +1030,49 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11"/>
       <c r="B35" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11"/>
       <c r="B38" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11"/>
       <c r="B39" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
@@ -977,19 +1080,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
         <v>51</v>
       </c>
@@ -997,91 +1100,91 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11"/>
       <c r="B45" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11"/>
       <c r="B48" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11"/>
       <c r="B50" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="11"/>
       <c r="B52" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11"/>
       <c r="B54" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="11"/>
       <c r="B55" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="11"/>
       <c r="B56" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="11"/>
       <c r="B57" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="13"/>
       <c r="B58" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
         <v>67</v>
       </c>
@@ -1089,13 +1192,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
         <v>70</v>
       </c>
@@ -1103,13 +1206,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="13"/>
       <c r="B62" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>73</v>
       </c>
@@ -1117,37 +1220,37 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
       <c r="B64" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
       <c r="B65" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5"/>
       <c r="B67" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7"/>
       <c r="B68" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
         <v>80</v>
       </c>
@@ -1155,13 +1258,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
         <v>83</v>
       </c>
@@ -1169,43 +1272,43 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5"/>
       <c r="B72" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5"/>
       <c r="B73" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5"/>
       <c r="B74" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5"/>
       <c r="B75" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7"/>
       <c r="B77" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
         <v>91</v>
       </c>
@@ -1213,37 +1316,37 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="16"/>
       <c r="B79" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="16"/>
       <c r="B80" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="16"/>
       <c r="B81" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="16"/>
       <c r="B82" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="18" t="s">
         <v>98</v>
       </c>
@@ -1251,19 +1354,19 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="19"/>
       <c r="B85" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="20"/>
       <c r="B86" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
         <v>102</v>
       </c>
@@ -1271,28 +1374,194 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="16"/>
       <c r="B88" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="16"/>
       <c r="B89" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="16"/>
       <c r="B90" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="22"/>
+      <c r="B93" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="22"/>
+      <c r="B94" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="22"/>
+      <c r="B95" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="22"/>
+      <c r="B96" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="22"/>
+      <c r="B97" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="23"/>
+      <c r="B98" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="17"/>
+      <c r="B106" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="20"/>
+      <c r="B108" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="24"/>
+      <c r="B112" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="17"/>
+      <c r="B114" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="19"/>
+      <c r="B116" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="20"/>
+      <c r="B117" s="20" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1323,48 +1592,48 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>109</v>
+      <c r="A1" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="26" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26" t="s">
         <v>97</v>
       </c>
     </row>

--- a/zServicos.xlsx
+++ b/zServicos.xlsx
@@ -21,429 +21,480 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
-  <si>
-    <t>Servicio refactorizado</t>
-  </si>
-  <si>
-    <t>Operaciones refactorizadas</t>
-  </si>
-  <si>
-    <t>ABM Elemento</t>
-  </si>
-  <si>
-    <t>ABMArchivoAcreedores</t>
-  </si>
-  <si>
-    <t>ABMArchivoClientes</t>
-  </si>
-  <si>
-    <t>ABMArchivoCreditosRecibosInterrumpidos</t>
-  </si>
-  <si>
-    <t>ABMArchivoElemento</t>
-  </si>
-  <si>
-    <t>ABMArchivoProveedores</t>
-  </si>
-  <si>
-    <t>ABMArchivoRecibos</t>
-  </si>
-  <si>
-    <t>ABMArchivoVendedores</t>
-  </si>
-  <si>
-    <t>ABMChequesEnCartera</t>
-  </si>
-  <si>
-    <t>ABMChequesRechazados</t>
-  </si>
-  <si>
-    <t>ABMArticulos</t>
-  </si>
-  <si>
-    <t>ABMClientesGestionJudicial</t>
-  </si>
-  <si>
-    <t>ABMComisiones</t>
-  </si>
-  <si>
-    <t>ABMComprasSinInventario</t>
-  </si>
-  <si>
-    <t>ABMCondiciones</t>
-  </si>
-  <si>
-    <t>ABMConsultaArchivoTelefono</t>
-  </si>
-  <si>
-    <t>ABMFletes</t>
-  </si>
-  <si>
-    <t>ABMMensajesClientes</t>
-  </si>
-  <si>
-    <t>ABMOtrosDeudores</t>
-  </si>
-  <si>
-    <t>ABMPedidos</t>
-  </si>
-  <si>
-    <t>AltasYBajasElemento</t>
-  </si>
-  <si>
-    <t>AltasYBajasDevolucionBolsas</t>
-  </si>
-  <si>
-    <t>AltasyBajasRecibosProvisoriosAnulados</t>
-  </si>
-  <si>
-    <t>AltasYBajasTalonariosRecibosProvisoriosEnviados</t>
-  </si>
-  <si>
-    <t>AnulacionElemento</t>
-  </si>
-  <si>
-    <t>AnulacionEntregaMercaderiaSinFacturaConPedido</t>
-  </si>
-  <si>
-    <t>AnulacionFacturasMercaderiaNoEntregada</t>
-  </si>
-  <si>
-    <t>AnulacionRecibos</t>
-  </si>
-  <si>
-    <t>AnulacionRemitosMercaderiaEntregada</t>
-  </si>
-  <si>
-    <t>InformesClientes</t>
-  </si>
-  <si>
-    <t>InformeClientesParaSecretariaComercio</t>
-  </si>
-  <si>
-    <t>InformeClientesParaSecretariaComercioHarina000</t>
-  </si>
-  <si>
-    <t>VerificacionElemento</t>
-  </si>
-  <si>
-    <t>VerificacionEstadoArchivoFacturacion</t>
-  </si>
-  <si>
-    <t>VerificaCuitProveedoresAcreedoresClientes</t>
-  </si>
-  <si>
-    <t>VerificadorPadronIngresosBrutos</t>
-  </si>
-  <si>
-    <t>Armado Elemento</t>
-  </si>
-  <si>
-    <t>ArmadoArchivosComunicacionCartaPorteRecibidas</t>
-  </si>
-  <si>
-    <t>ArmadoCitiCompras</t>
-  </si>
-  <si>
-    <t>ArmadoListadosSubsidios</t>
-  </si>
-  <si>
-    <t>ArmadoListadosSubsidiosSalidaExcel</t>
-  </si>
-  <si>
-    <t>ArmadoSicorePercepcionesIngresosBrutos</t>
-  </si>
-  <si>
-    <t>ArmadoSicoreRetenciones</t>
-  </si>
-  <si>
-    <t>ArmadoSicoreRetencionesIngresosBrutos</t>
-  </si>
-  <si>
-    <t>ArmaRegistroRetenciones</t>
-  </si>
-  <si>
-    <t>BajaElemento</t>
-  </si>
-  <si>
-    <t>BajaChequesEndosadosNoRechazados</t>
-  </si>
-  <si>
-    <t>BajaIngresosYAjustesStock</t>
-  </si>
-  <si>
-    <t>BajaLibroOrdenesPago</t>
-  </si>
-  <si>
-    <t>BalanceElemento</t>
-  </si>
-  <si>
-    <t>BalanceArchivosDiarios</t>
-  </si>
-  <si>
-    <t>BalanceCuentaDeudasYCuentaCorriente</t>
-  </si>
-  <si>
-    <t>BalanceCuentaDeudasYCuentaCorrienteSalidaAExcel</t>
-  </si>
-  <si>
-    <t>BalanceCuentaDeudasYCuentaCorrienteSalidaExcel</t>
-  </si>
-  <si>
-    <t>BalanceCuentasCorrientesGestionJudicial</t>
-  </si>
-  <si>
-    <t>BalanceDeudasCuentasCorrientes</t>
-  </si>
-  <si>
-    <t>BalanceEntreCuentasCorrientesYArrastreSaldos</t>
-  </si>
-  <si>
-    <t>BalanceLibroIva</t>
-  </si>
-  <si>
-    <t>BalanceMayorProveedoresPorCodigoProveedor</t>
-  </si>
-  <si>
-    <t>BalanceMovimientosCuentasCorrientes</t>
-  </si>
-  <si>
-    <t>BalanceMovimientosCuentasProveedoresAcreedores</t>
-  </si>
-  <si>
-    <t>BalanceMovimientosCuentasProveedoresAcreedoresSalidaExcel</t>
-  </si>
-  <si>
-    <t>BalanceSaldosAcreedoresProveedores</t>
-  </si>
-  <si>
-    <t>BalanceSaldosClientes</t>
-  </si>
-  <si>
-    <t>BalanceSaldosClientesSalidaExcel</t>
-  </si>
-  <si>
-    <t>DebitosCreditos</t>
-  </si>
-  <si>
-    <t>DebitosCreditosCompraCereal</t>
-  </si>
-  <si>
-    <t>DebitosCreditosVarios</t>
-  </si>
-  <si>
-    <t>VentasPorZonaSubproductoMesSalida</t>
-  </si>
-  <si>
-    <t>VentasPorZonaSubproductoMesSalidaExcel</t>
-  </si>
-  <si>
-    <t>VentasPorZonaSubproductoMesSalidaExcelDetalle</t>
-  </si>
-  <si>
-    <t>ControlElemento</t>
-  </si>
-  <si>
-    <t>ControlNumeracionRecibos</t>
-  </si>
-  <si>
-    <t>ControlRecibosProvisoriosEnviadosRecibidos</t>
-  </si>
-  <si>
-    <t>ControlRecibosProvisoriosEnviadosRecibidosSalidaExcel</t>
-  </si>
-  <si>
-    <t>ControlRecibosProvisoriosRecibidos</t>
-  </si>
-  <si>
-    <t>ControlRecibosProvisoriosRecibidosSalidaExcel</t>
-  </si>
-  <si>
-    <t>ControlSecuenciaLibroIva</t>
-  </si>
-  <si>
-    <t>CobranzaElemento</t>
-  </si>
-  <si>
-    <t>CobranzaClientesPorZona</t>
-  </si>
-  <si>
-    <t>CobranzaPorZonaMes</t>
-  </si>
-  <si>
-    <t>CuentasElemento</t>
-  </si>
-  <si>
-    <t>CuentaBolsasPorPantalla</t>
-  </si>
-  <si>
-    <t>CuentasCorrientesAcreedoresPorPantalla</t>
-  </si>
-  <si>
-    <t>CuentasCorrientesPorPantalla</t>
-  </si>
-  <si>
-    <t>CuentasCorrientesProveedoresPorPantalla</t>
-  </si>
-  <si>
-    <t>CuentasCorrientesVendedoresPorPantalla</t>
-  </si>
-  <si>
-    <t>CuentasEnGestionJudicialPorPantalla</t>
-  </si>
-  <si>
-    <t>CuentasOtrosDeudoresPorPantalla</t>
-  </si>
-  <si>
-    <t>EmisionElemento</t>
-  </si>
-  <si>
-    <t>EmisionRecibosCobroDeudores</t>
-  </si>
-  <si>
-    <t>EmisionRecibos</t>
-  </si>
-  <si>
-    <t>EmisionOrdenesPagoYComprobantesRetenciones</t>
-  </si>
-  <si>
-    <t>EmisionManualCreditosCobranza</t>
-  </si>
-  <si>
-    <t>EmisionConFacturaDeCredito</t>
-  </si>
-  <si>
-    <t>EmisionCartasPorte</t>
-  </si>
-  <si>
-    <t>EntregaMercaderiaSinFacturaElemento</t>
-  </si>
-  <si>
-    <t>EntregaMercaderiaSinFacturaConPedido</t>
-  </si>
-  <si>
-    <t>EntregaMercaderiaSinFacturaConPedidoParaExportacion</t>
-  </si>
-  <si>
-    <t>EntregaMercaderiaSinFacturaNiPedido</t>
-  </si>
-  <si>
-    <t>ListaElemento</t>
-  </si>
-  <si>
-    <t>ListaHischeq</t>
-  </si>
-  <si>
-    <t>ListaKardex</t>
-  </si>
-  <si>
-    <t>ListaMayorSalidaExcel</t>
-  </si>
-  <si>
-    <t>ListaSaldosPedidosSalidaExcel</t>
-  </si>
-  <si>
-    <t>ListaSituacionTrigoUnaFechaSalidaExcel</t>
-  </si>
-  <si>
-    <t>LimpiezaElemento</t>
-  </si>
-  <si>
-    <t>LimpiaMercaderiaAEntregarDonaciones</t>
-  </si>
-  <si>
-    <t>LimpiezaCuentasCorrientes</t>
-  </si>
-  <si>
-    <t>LimpiezaEstadisticas</t>
-  </si>
-  <si>
-    <t>LimpiezaKardex</t>
-  </si>
-  <si>
-    <t>LimpiezaLibroCompras</t>
-  </si>
-  <si>
-    <t>LimpiezaLibroIva</t>
-  </si>
-  <si>
-    <t>LimpiezaLibroRecibos</t>
-  </si>
-  <si>
-    <t>FacturacionElemento</t>
-  </si>
-  <si>
-    <t>FacturacionManualFletes</t>
-  </si>
-  <si>
-    <t>FacturacionMercaderiaYaEntregada</t>
-  </si>
-  <si>
-    <t>FacturacionPedidos</t>
-  </si>
-  <si>
-    <t>FacturacionPedidosSinEntregaMercaderia</t>
-  </si>
-  <si>
-    <t>FacturacionPedidosSinEntregaMercaderiaExportacion</t>
-  </si>
-  <si>
-    <t>FacturacionSinPedidos</t>
-  </si>
-  <si>
-    <t>FacturacionSinPedidosConceptosVariosExportacion</t>
-  </si>
-  <si>
-    <t>FacturacionSinPedidosMercaderiaAEntregar</t>
-  </si>
-  <si>
-    <t>ImpresionArchivoElemento</t>
-  </si>
-  <si>
-    <t>ImpresionArchivoTelefono</t>
-  </si>
-  <si>
-    <t>ImpresionArchivoTelefonoSalidaExcel</t>
-  </si>
-  <si>
-    <t>ImpresionElemento</t>
-  </si>
-  <si>
-    <t>ImpresionCuentasOtrosDeudores</t>
-  </si>
-  <si>
-    <t>ImpresionFacturaCredito</t>
-  </si>
-  <si>
-    <t>ImpresionLibroBancos</t>
-  </si>
-  <si>
-    <t>ImpresionLibroCartasPorteEmitidas</t>
-  </si>
-  <si>
-    <t>ImpresionLibroOrdenesPago</t>
-  </si>
-  <si>
-    <t>ImpresionTotalesMovimientosStockMensual</t>
-  </si>
-  <si>
-    <t>ImpresorElemento</t>
-  </si>
-  <si>
-    <t>ImpresorCarteraDocumentosACobrar</t>
-  </si>
-  <si>
-    <t>ImpresorPreciosPromedios</t>
-  </si>
-  <si>
-    <t>ImpresorPreciosPromediosTrigo</t>
-  </si>
-  <si>
-    <t>servicio refacturizado</t>
-  </si>
-  <si>
-    <t>servicio a refactorizar</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="158">
+  <si>
+    <t xml:space="preserve">Servicio refactorizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operaciones refactorizadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABM Elemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMArchivoAcreedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMArchivoClientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMArchivoCreditosRecibosInterrumpidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMArchivoElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMArchivoProveedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMArchivoRecibos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMArchivoVendedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMChequesEnCartera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMChequesRechazados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMArticulos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMClientesGestionJudicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMComisiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMComprasSinInventario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMCondiciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMConsultaArchivoTelefono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMFletes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMMensajesClientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMOtrosDeudores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMPedidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AltasYBajasElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AltasYBajasDevolucionBolsas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AltasyBajasRecibosProvisoriosAnulados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AltasYBajasTalonariosRecibosProvisoriosEnviados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnulacionElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnulacionEntregaMercaderiaSinFacturaConPedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnulacionFacturasMercaderiaNoEntregada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnulacionRecibos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnulacionRemitosMercaderiaEntregada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InformesClientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InformeClientesParaSecretariaComercio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InformeClientesParaSecretariaComercioHarina000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VerificacionElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VerificacionEstadoArchivoFacturacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VerificaCuitProveedoresAcreedoresClientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VerificadorPadronIngresosBrutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armado Elemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArmadoArchivosComunicacionCartaPorteRecibidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArmadoCitiCompras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArmadoListadosSubsidios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArmadoListadosSubsidiosSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArmadoSicorePercepcionesIngresosBrutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArmadoSicoreRetenciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArmadoSicoreRetencionesIngresosBrutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArmaRegistroRetenciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BajaElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BajaChequesEndosadosNoRechazados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BajaIngresosYAjustesStock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BajaLibroOrdenesPago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceArchivosDiarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceCuentaDeudasYCuentaCorriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceCuentaDeudasYCuentaCorrienteSalidaAExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceCuentaDeudasYCuentaCorrienteSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceCuentasCorrientesGestionJudicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceDeudasCuentasCorrientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceEntreCuentasCorrientesYArrastreSaldos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceLibroIva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceMayorProveedoresPorCodigoProveedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceMovimientosCuentasCorrientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceMovimientosCuentasProveedoresAcreedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceMovimientosCuentasProveedoresAcreedoresSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceSaldosAcreedoresProveedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceSaldosClientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceSaldosClientesSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DebitosCreditos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DebitosCreditosCompraCereal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DebitosCreditosVarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VentasPorZonaSubproductoMesSalida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VentasPorZonaSubproductoMesSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VentasPorZonaSubproductoMesSalidaExcelDetalle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ControlElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ControlNumeracionRecibos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ControlRecibosProvisoriosEnviadosRecibidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ControlRecibosProvisoriosEnviadosRecibidosSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ControlRecibosProvisoriosRecibidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ControlRecibosProvisoriosRecibidosSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ControlSecuenciaLibroIva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CobranzaElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CobranzaClientesPorZona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CobranzaPorZonaMes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CuentasElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CuentaBolsasPorPantalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CuentasCorrientesAcreedoresPorPantalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CuentasCorrientesPorPantalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CuentasCorrientesProveedoresPorPantalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CuentasCorrientesVendedoresPorPantalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CuentasEnGestionJudicialPorPantalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CuentasOtrosDeudoresPorPantalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmisionElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmisionRecibosCobroDeudores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmisionRecibos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmisionOrdenesPagoYComprobantesRetenciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmisionManualCreditosCobranza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmisionConFacturaDeCredito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmisionCartasPorte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntregaMercaderiaSinFacturaElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntregaMercaderiaSinFacturaConPedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntregaMercaderiaSinFacturaConPedidoParaExportacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntregaMercaderiaSinFacturaNiPedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListaElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListaHischeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListaKardex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListaMayorSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListaSaldosPedidosSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListaSituacionTrigoUnaFechaSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LimpiezaElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LimpiaMercaderiaAEntregarDonaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LimpiezaCuentasCorrientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LimpiezaEstadisticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LimpiezaKardex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LimpiezaLibroCompras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LimpiezaLibroIva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LimpiezaLibroRecibos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FacturacionElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FacturacionManualFletes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FacturacionMercaderiaYaEntregada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FacturacionPedidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FacturacionPedidosSinEntregaMercaderia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FacturacionPedidosSinEntregaMercaderiaExportacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FacturacionSinPedidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FacturacionSinPedidosConceptosVariosExportacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FacturacionSinPedidosMercaderiaAEntregar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpresionArchivoElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpresionArchivoTelefono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpresionArchivoTelefonoSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpresionElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpresionCuentasOtrosDeudores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpresionFacturaCredito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpresionLibroBancos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpresionLibroCartasPorteEmitidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpresionLibroOrdenesPago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpresionTotalesMovimientosStockMensual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpresorElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpresorCarteraDocumentosACobrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpresorPreciosPromedios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpresorPreciosPromediosTrigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoChequesRecibidosSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoChequesRecibidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoChequesRechazados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoFacturadoClienteEntreFechasAPedidoSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoFacturadoClienteEntreFechasAPedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoDeudoresGestionJudicialPorZonaMesSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoHistoriaCobranzas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoDeudoresPorVentasZonaMesSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoLibroIvaComprasDeProveedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoLibroIvaCompras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoCajaOrdenIngresosYEgresos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoCajaOrdenMayor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoLibroIvaComprasEnlaceExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoComisionesPorVendedorMesSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoCajaOrdenIngresosEgresos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoHarinaVendida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">servicio refacturizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">servicio a refactorizar</t>
   </si>
 </sst>
 </file>
@@ -451,7 +502,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -805,16 +856,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B121" activeCellId="0" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="49.5951417004049"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1562,6 +1613,104 @@
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="16"/>
+      <c r="B119" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="16"/>
+      <c r="B120" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="16"/>
+      <c r="B121" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="16"/>
+      <c r="B122" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="16"/>
+      <c r="B123" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="16"/>
+      <c r="B124" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="16"/>
+      <c r="B125" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="16"/>
+      <c r="B126" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="16"/>
+      <c r="B128" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="16"/>
+      <c r="B129" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="16"/>
+      <c r="B130" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="16"/>
+      <c r="B132" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="17"/>
+      <c r="B133" s="17" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1593,10 +1742,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/zServicos.xlsx
+++ b/zServicos.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="162">
   <si>
     <t xml:space="preserve">Servicio refactorizado</t>
   </si>
@@ -489,6 +489,18 @@
   </si>
   <si>
     <t xml:space="preserve">ListadoHarinaVendida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LibroVentas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LibroVentasPorImputacionAPedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LibroVentasPorImputacionAPedidoSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LibroComprasImputacionAPedidoPorPantalla</t>
   </si>
   <si>
     <t xml:space="preserve">servicio refacturizado</t>
@@ -856,16 +868,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B121" activeCellId="0" sqref="B121"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A138" activeCellId="0" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="49.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.3441295546559"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1711,6 +1723,26 @@
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="19"/>
+      <c r="B135" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="20"/>
+      <c r="B136" s="20" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1742,10 +1774,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/zServicos.xlsx
+++ b/zServicos.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="170">
   <si>
     <t xml:space="preserve">Servicio refactorizado</t>
   </si>
@@ -501,6 +501,30 @@
   </si>
   <si>
     <t xml:space="preserve">LibroComprasImputacionAPedidoPorPantalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorCuentas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorCuentasCorrientesEnGestionJudicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorCuentasAcreedoresSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorCuentasAcreedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorCuentaCorrienteBolsas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorCuentasCorrientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorCuentasProveedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorCuentasVendedores</t>
   </si>
   <si>
     <t xml:space="preserve">servicio refacturizado</t>
@@ -868,9 +892,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A138" activeCellId="0" sqref="A138"/>
     </sheetView>
   </sheetViews>
@@ -1743,6 +1767,50 @@
       <c r="A136" s="20"/>
       <c r="B136" s="20" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="16"/>
+      <c r="B138" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="16"/>
+      <c r="B139" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="16"/>
+      <c r="B140" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="16"/>
+      <c r="B141" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="16"/>
+      <c r="B142" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="17"/>
+      <c r="B143" s="17" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1774,10 +1842,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/zServicos.xlsx
+++ b/zServicos.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="186">
   <si>
     <t xml:space="preserve">Servicio refactorizado</t>
   </si>
@@ -525,6 +525,54 @@
   </si>
   <si>
     <t xml:space="preserve">ListadorCuentasVendedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorArchivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorArchivoProveedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorArchivoAcreedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorArchivoClientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorArchivoClientesMonotributistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorDeudas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorDeudasChequesRechazadosCartaConvalidando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorDeudasChequesRechazadosCartaReclamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorDeudasChequesRechazadosSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorDeudasChequesRechazados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorDeudasParaVendedorSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListaDeudasND30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorDeudasParaVendedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorDeudasUnCliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorEstadisticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorEstadisticasSegunCondicionIva</t>
   </si>
   <si>
     <t xml:space="preserve">servicio refacturizado</t>
@@ -892,16 +940,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A138" activeCellId="0" sqref="A138"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A144" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A159" activeCellId="0" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.3441295546559"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.4493927125506"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1811,6 +1859,102 @@
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="19"/>
+      <c r="B145" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="19"/>
+      <c r="B146" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="20"/>
+      <c r="B147" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="16"/>
+      <c r="B149" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="16"/>
+      <c r="B150" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="16"/>
+      <c r="B151" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="16"/>
+      <c r="B152" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="16"/>
+      <c r="B153" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="16"/>
+      <c r="B154" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="16"/>
+      <c r="B155" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="17"/>
+      <c r="B156" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="20"/>
+      <c r="B158" s="20" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1842,10 +1986,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/zServicos.xlsx
+++ b/zServicos.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="194">
   <si>
     <t xml:space="preserve">Servicio refactorizado</t>
   </si>
@@ -573,6 +573,30 @@
   </si>
   <si>
     <t xml:space="preserve">ListadorEstadisticasSegunCondicionIva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorLibro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorLibroIvaSalidaExcelVariosPeriodos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorLibroIvaEntreFechas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorLibroIvaSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorLibroIva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorNuevoLibro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorNuevoLibroIvaDescuentosSinRecibos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorNuevoLibroRecibos</t>
   </si>
   <si>
     <t xml:space="preserve">servicio refacturizado</t>
@@ -940,16 +964,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A144" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A159" activeCellId="0" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.7732793522267"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="51.2024291497976"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1955,6 +1979,46 @@
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="16"/>
+      <c r="B160" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="16"/>
+      <c r="B161" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="17"/>
+      <c r="B162" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="20"/>
+      <c r="B164" s="20" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1986,10 +2050,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/zServicos.xlsx
+++ b/zServicos.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="274">
   <si>
     <t xml:space="preserve">Servicio refactorizado</t>
   </si>
@@ -29,12 +29,24 @@
     <t xml:space="preserve">Operaciones refactorizadas</t>
   </si>
   <si>
+    <t xml:space="preserve">Tiempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notas</t>
+  </si>
+  <si>
     <t xml:space="preserve">ABM Elemento</t>
   </si>
   <si>
     <t xml:space="preserve">ABMArchivoAcreedores</t>
   </si>
   <si>
+    <t xml:space="preserve">157min</t>
+  </si>
+  <si>
     <t xml:space="preserve">ABMArchivoClientes</t>
   </si>
   <si>
@@ -89,18 +101,45 @@
     <t xml:space="preserve">ABMPedidos</t>
   </si>
   <si>
+    <t xml:space="preserve">CajaIngresosYEgresos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mismo comportamiento en las operaciones, atributos similares en los mensajes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posteriormente agregado el tiempo fue el analisis para ver si se agregaba a este grupo</t>
+  </si>
+  <si>
     <t xml:space="preserve">AltasYBajasElemento</t>
   </si>
   <si>
     <t xml:space="preserve">AltasYBajasDevolucionBolsas</t>
   </si>
   <si>
+    <t xml:space="preserve">10min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de los archivos, igualdad en las operaciones.</t>
+  </si>
+  <si>
     <t xml:space="preserve">AltasyBajasRecibosProvisoriosAnulados</t>
   </si>
   <si>
     <t xml:space="preserve">AltasYBajasTalonariosRecibosProvisoriosEnviados</t>
   </si>
   <si>
+    <t xml:space="preserve">AbuInterdepositos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posteriormente agregado el tiempo fue el analisis para ver si se agregaba a este grupo, se agregaron operaciones al servicio refactorizado pertenecientes a este servicio</t>
+  </si>
+  <si>
     <t xml:space="preserve">AnulacionElemento</t>
   </si>
   <si>
@@ -143,6 +182,12 @@
     <t xml:space="preserve">ArmadoArchivosComunicacionCartaPorteRecibidas</t>
   </si>
   <si>
+    <t xml:space="preserve">20Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre  y cantidad de servicios</t>
+  </si>
+  <si>
     <t xml:space="preserve">ArmadoCitiCompras</t>
   </si>
   <si>
@@ -164,6 +209,18 @@
     <t xml:space="preserve">ArmaRegistroRetenciones</t>
   </si>
   <si>
+    <t xml:space="preserve">ConversionPadronIngresosBrutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similitud en los mensajes, se agregaron las operaciones del servicio al servicio refactorizado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregado posteriormente, analizando la similitud de los archivos, misma operation y atributos en los mensajes</t>
+  </si>
+  <si>
     <t xml:space="preserve">BajaElemento</t>
   </si>
   <si>
@@ -230,18 +287,48 @@
     <t xml:space="preserve">DebitosCreditosCompraCereal</t>
   </si>
   <si>
+    <t xml:space="preserve">4 Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre servicios, nombre y cantidad de operaciones</t>
+  </si>
+  <si>
     <t xml:space="preserve">DebitosCreditosVarios</t>
   </si>
   <si>
+    <t xml:space="preserve">CreditosPorDevoluciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similitud en los mensajes se agregaron las operaciones al servicio refactorizado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NotaDeCreditoSinRemitoConPedidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4Min</t>
+  </si>
+  <si>
     <t xml:space="preserve">VentasPorZonaSubproductoMesSalida</t>
   </si>
   <si>
     <t xml:space="preserve">VentasPorZonaSubproductoMesSalidaExcel</t>
   </si>
   <si>
+    <t xml:space="preserve">7 min</t>
+  </si>
+  <si>
     <t xml:space="preserve">VentasPorZonaSubproductoMesSalidaExcelDetalle</t>
   </si>
   <si>
+    <t xml:space="preserve">DescuentosConcedidosPorZonasMesSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mismo comportamiento en </t>
+  </si>
+  <si>
     <t xml:space="preserve">ControlElemento</t>
   </si>
   <si>
@@ -302,6 +389,9 @@
     <t xml:space="preserve">EmisionRecibosCobroDeudores</t>
   </si>
   <si>
+    <t xml:space="preserve">25min</t>
+  </si>
+  <si>
     <t xml:space="preserve">EmisionRecibos</t>
   </si>
   <si>
@@ -317,6 +407,12 @@
     <t xml:space="preserve">EmisionCartasPorte</t>
   </si>
   <si>
+    <t xml:space="preserve">ComplementoAlEmisorRecibos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similitud en los elemento, se agregaron las operaciones de este servicio al servicio refactorizado.</t>
+  </si>
+  <si>
     <t xml:space="preserve">EntregaMercaderiaSinFacturaElemento</t>
   </si>
   <si>
@@ -413,6 +509,9 @@
     <t xml:space="preserve">ImpresionCuentasOtrosDeudores</t>
   </si>
   <si>
+    <t xml:space="preserve">16Min</t>
+  </si>
+  <si>
     <t xml:space="preserve">ImpresionFacturaCredito</t>
   </si>
   <si>
@@ -428,24 +527,51 @@
     <t xml:space="preserve">ImpresionTotalesMovimientosStockMensual</t>
   </si>
   <si>
+    <t xml:space="preserve">DetalleRetencionesLibroOrdenesPago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregado posteriormente, similitud de las operaciones y los mensajes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuplicadoOrdenesPagoYComprobanteRetenciones</t>
+  </si>
+  <si>
     <t xml:space="preserve">ImpresorElemento</t>
   </si>
   <si>
     <t xml:space="preserve">ImpresorCarteraDocumentosACobrar</t>
   </si>
   <si>
+    <t xml:space="preserve">9Min</t>
+  </si>
+  <si>
     <t xml:space="preserve">ImpresorPreciosPromedios</t>
   </si>
   <si>
     <t xml:space="preserve">ImpresorPreciosPromediosTrigo</t>
   </si>
   <si>
+    <t xml:space="preserve">ImpresionCarteraInterdepositos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11min</t>
+  </si>
+  <si>
     <t xml:space="preserve">ListadoElemento</t>
   </si>
   <si>
     <t xml:space="preserve">ListadoChequesRecibidosSalidaExcel</t>
   </si>
   <si>
+    <t xml:space="preserve">54min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de los wsdl, nombre de las operaciones, cantidad de operaciones, similitud en el comportamiento de las operaciones. </t>
+  </si>
+  <si>
     <t xml:space="preserve">ListadoChequesRecibidos</t>
   </si>
   <si>
@@ -491,6 +617,18 @@
     <t xml:space="preserve">ListadoHarinaVendida</t>
   </si>
   <si>
+    <t xml:space="preserve">ChequesAFechaPorZonaMes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similitud en los mensajes y el comportamiento de las operaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListaContabilizaBorraCaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7min</t>
+  </si>
+  <si>
     <t xml:space="preserve">LibroVentas</t>
   </si>
   <si>
@@ -548,6 +686,12 @@
     <t xml:space="preserve">ListadorDeudasChequesRechazadosCartaConvalidando</t>
   </si>
   <si>
+    <t xml:space="preserve">17min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similitud en el comportamiento de las operaciones tambien en el nombre de los servicios</t>
+  </si>
+  <si>
     <t xml:space="preserve">ListadorDeudasChequesRechazadosCartaReclamo</t>
   </si>
   <si>
@@ -569,6 +713,12 @@
     <t xml:space="preserve">ListadorDeudasUnCliente</t>
   </si>
   <si>
+    <t xml:space="preserve">DeudasPorPantalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregado posteriormente,mismas operaciones y los mensajes.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ListadorEstadisticas</t>
   </si>
   <si>
@@ -597,6 +747,96 @@
   </si>
   <si>
     <t xml:space="preserve">ListadorNuevoLibroRecibos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoVeintePrimerosDeudoresAcreedoresProveedores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoVeintePrimerosDeudoresAcreedoresProveedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similitud en el nombre de los servicios y las operaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoVeintePrimerosDeudoresAcreedoresProveedoresSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeudoresQueExcedenTope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misma operación, similitud en los mensajes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MercaderiaAEntregar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MercaderiaAEntregarPorZona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MercaderiaAEntregarPorZonaSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConsultaListaMercaderiaAEntregar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModificacionesElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModificacionesComisiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModificacionesArrastreCaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PedidosPendientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PedidosPendientesPorArticuloCliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de las operaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PedidosPendientesPorZonaSalidaExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorElemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorMovimientosCuentasAcreedoresPorVencimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadorPercepcionesLibroIva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoTotalesLibroIvaCompras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListadoTotalesCobranzaMensual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BusquedaMovimientosRepetidosMercaderiaAEntregar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similitud en el comportamiento de las operaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MovimientoCliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12Min</t>
   </si>
   <si>
     <t xml:space="preserve">servicio refacturizado</t>
@@ -718,21 +958,7 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="hair"/>
       <top/>
       <bottom/>
@@ -743,6 +969,20 @@
       <right style="hair"/>
       <top/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -803,15 +1043,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -827,7 +1059,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -843,11 +1083,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -855,11 +1099,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -867,15 +1107,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -964,17 +1204,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A159" activeCellId="0" sqref="A159"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="51.2024291497976"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.7368421052632"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -984,1041 +1226,1455 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>15</v>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>16</v>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>18</v>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>19</v>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>20</v>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
-        <v>21</v>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>23</v>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
-        <v>24</v>
+      <c r="A22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
-        <v>25</v>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>27</v>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>29</v>
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8" t="s">
-        <v>30</v>
+      <c r="A27" s="4"/>
+      <c r="B27" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>32</v>
+      <c r="A28" s="4"/>
+      <c r="B28" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
-        <v>33</v>
+      <c r="A29" s="5"/>
+      <c r="B29" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>35</v>
+      <c r="A30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>36</v>
+      <c r="A31" s="9"/>
+      <c r="B31" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8" t="s">
-        <v>37</v>
+      <c r="A32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>39</v>
+      <c r="A33" s="4"/>
+      <c r="B33" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11" t="s">
-        <v>40</v>
+      <c r="A34" s="5"/>
+      <c r="B34" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11" t="s">
-        <v>41</v>
+      <c r="A35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11" t="s">
-        <v>42</v>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11" t="s">
-        <v>43</v>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11" t="s">
-        <v>44</v>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11" t="s">
-        <v>45</v>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13" t="s">
-        <v>46</v>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>48</v>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="s">
-        <v>49</v>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
-        <v>50</v>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>52</v>
+      <c r="A44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11" t="s">
-        <v>53</v>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11" t="s">
-        <v>54</v>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11" t="s">
-        <v>55</v>
+      <c r="A47" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11" t="s">
-        <v>56</v>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11" t="s">
-        <v>57</v>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11" t="s">
-        <v>58</v>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11" t="s">
-        <v>59</v>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11" t="s">
-        <v>60</v>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11" t="s">
-        <v>61</v>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11" t="s">
-        <v>62</v>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11" t="s">
-        <v>63</v>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11" t="s">
-        <v>64</v>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11" t="s">
-        <v>65</v>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13" t="s">
-        <v>66</v>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>68</v>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7" t="s">
-        <v>69</v>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13" t="s">
-        <v>72</v>
+      <c r="A62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>74</v>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5" t="s">
-        <v>75</v>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
       <c r="B65" s="5" t="s">
-        <v>76</v>
+        <v>94</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5" t="s">
-        <v>77</v>
+      <c r="A66" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5" t="s">
-        <v>78</v>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7" t="s">
-        <v>79</v>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>81</v>
+      <c r="A69" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13" t="s">
-        <v>82</v>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>84</v>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5" t="s">
-        <v>85</v>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5" t="s">
-        <v>86</v>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5"/>
       <c r="B74" s="5" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5" t="s">
-        <v>88</v>
+      <c r="A75" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5" t="s">
-        <v>89</v>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7" t="s">
-        <v>90</v>
+      <c r="A77" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>92</v>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16" t="s">
-        <v>93</v>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16" t="s">
-        <v>94</v>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16" t="s">
-        <v>95</v>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16" t="s">
-        <v>96</v>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17" t="s">
-        <v>97</v>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>99</v>
+      <c r="A84" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19" t="s">
-        <v>100</v>
-      </c>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="17"/>
     </row>
     <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20" t="s">
-        <v>101</v>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>103</v>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="16"/>
       <c r="B88" s="16" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="16"/>
       <c r="B89" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16" t="s">
-        <v>106</v>
+      <c r="A90" s="18"/>
+      <c r="B90" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17" t="s">
-        <v>107</v>
+      <c r="A91" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>109</v>
+      <c r="A92" s="20"/>
+      <c r="B92" s="20" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22" t="s">
-        <v>110</v>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22" t="s">
-        <v>111</v>
+      <c r="A94" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="22"/>
-      <c r="B95" s="22" t="s">
-        <v>112</v>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="22"/>
-      <c r="B96" s="22" t="s">
-        <v>113</v>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22" t="s">
-        <v>114</v>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="23"/>
-      <c r="B98" s="23" t="s">
-        <v>115</v>
+      <c r="A98" s="18"/>
+      <c r="B98" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>117</v>
+      <c r="A99" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16" t="s">
-        <v>118</v>
+      <c r="A100" s="22"/>
+      <c r="B100" s="22" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16" t="s">
-        <v>119</v>
+      <c r="A101" s="22"/>
+      <c r="B101" s="22" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16" t="s">
-        <v>120</v>
+      <c r="A102" s="22"/>
+      <c r="B102" s="22" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16" t="s">
-        <v>121</v>
+      <c r="A103" s="22"/>
+      <c r="B103" s="22" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16" t="s">
-        <v>122</v>
+      <c r="A104" s="22"/>
+      <c r="B104" s="22" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="16"/>
-      <c r="B105" s="16" t="s">
-        <v>123</v>
+      <c r="A105" s="23"/>
+      <c r="B105" s="23" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17" t="s">
-        <v>124</v>
+      <c r="A106" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B107" s="18" t="s">
-        <v>126</v>
+      <c r="A107" s="16"/>
+      <c r="B107" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="20"/>
-      <c r="B108" s="20" t="s">
-        <v>127</v>
+      <c r="A108" s="16"/>
+      <c r="B108" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>129</v>
+      <c r="A109" s="16"/>
+      <c r="B109" s="16" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="16"/>
       <c r="B110" s="16" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="16"/>
       <c r="B111" s="16" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="24"/>
+      <c r="A112" s="16"/>
       <c r="B112" s="16" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16" t="s">
-        <v>133</v>
+      <c r="A113" s="18"/>
+      <c r="B113" s="18" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17" t="s">
-        <v>134</v>
+      <c r="A114" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>136</v>
+      <c r="A115" s="6"/>
+      <c r="B115" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="19"/>
-      <c r="B116" s="19" t="s">
-        <v>137</v>
+      <c r="A116" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="16"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="16"/>
+      <c r="B118" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="24"/>
       <c r="B119" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="16"/>
       <c r="B120" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="16"/>
       <c r="B121" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="16"/>
       <c r="B122" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D122" s="0"/>
+      <c r="E122" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="16"/>
       <c r="B123" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="16"/>
-      <c r="B124" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="16"/>
-      <c r="B125" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="16"/>
-      <c r="B126" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="16"/>
-      <c r="B127" s="16" t="s">
-        <v>149</v>
+        <v>171</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" s="0"/>
+      <c r="E123" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="20"/>
+      <c r="B125" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="20"/>
+      <c r="B126" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="19"/>
+      <c r="B127" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="16"/>
+      <c r="A128" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="B128" s="16" t="s">
-        <v>150</v>
+        <v>180</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="16"/>
       <c r="B129" s="16" t="s">
-        <v>151</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D129" s="17"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="16"/>
       <c r="B130" s="16" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="16"/>
       <c r="B131" s="16" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="16"/>
       <c r="B132" s="16" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="17"/>
-      <c r="B133" s="17" t="s">
-        <v>155</v>
+      <c r="A133" s="16"/>
+      <c r="B133" s="16" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B134" s="18" t="s">
-        <v>157</v>
+      <c r="A134" s="16"/>
+      <c r="B134" s="16" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="19"/>
-      <c r="B135" s="19" t="s">
-        <v>158</v>
+      <c r="A135" s="16"/>
+      <c r="B135" s="16" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="20"/>
-      <c r="B136" s="20" t="s">
-        <v>159</v>
+      <c r="A136" s="16"/>
+      <c r="B136" s="16" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B137" s="15" t="s">
-        <v>161</v>
+      <c r="A137" s="16"/>
+      <c r="B137" s="16" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="16"/>
       <c r="B138" s="16" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="16"/>
       <c r="B139" s="16" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="16"/>
       <c r="B140" s="16" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="16"/>
       <c r="B141" s="16" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="16"/>
       <c r="B142" s="16" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="17"/>
-      <c r="B143" s="17" t="s">
-        <v>167</v>
+      <c r="A143" s="16"/>
+      <c r="B143" s="16" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B144" s="18" t="s">
-        <v>169</v>
+      <c r="A144" s="16"/>
+      <c r="B144" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="19"/>
-      <c r="B145" s="19" t="s">
-        <v>170</v>
+      <c r="A145" s="18"/>
+      <c r="B145" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="19"/>
+      <c r="A146" s="19" t="s">
+        <v>202</v>
+      </c>
       <c r="B146" s="19" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>174</v>
+      <c r="A148" s="6"/>
+      <c r="B148" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="16"/>
-      <c r="B149" s="16" t="s">
-        <v>175</v>
+      <c r="A149" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="16"/>
       <c r="B150" s="16" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="16"/>
       <c r="B151" s="16" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="16"/>
       <c r="B152" s="16" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="16"/>
       <c r="B153" s="16" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="16"/>
       <c r="B154" s="16" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="16"/>
-      <c r="B155" s="16" t="s">
-        <v>180</v>
+      <c r="A155" s="18"/>
+      <c r="B155" s="18" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="17"/>
-      <c r="B156" s="17" t="s">
-        <v>181</v>
+      <c r="A156" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B157" s="18" t="s">
-        <v>182</v>
+      <c r="A157" s="20"/>
+      <c r="B157" s="20" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B159" s="15" t="s">
-        <v>185</v>
+      <c r="A159" s="6"/>
+      <c r="B159" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="16"/>
-      <c r="B160" s="16" t="s">
-        <v>186</v>
+      <c r="A160" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="16"/>
       <c r="B161" s="16" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="17"/>
-      <c r="B162" s="17" t="s">
-        <v>188</v>
+      <c r="A162" s="16"/>
+      <c r="B162" s="16" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="B163" s="18" t="s">
-        <v>190</v>
+      <c r="A163" s="16"/>
+      <c r="B163" s="16" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="20"/>
-      <c r="B164" s="20" t="s">
-        <v>191</v>
+      <c r="A164" s="16"/>
+      <c r="B164" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="16"/>
+      <c r="B165" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="16"/>
+      <c r="B166" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="16"/>
+      <c r="B167" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="16"/>
+      <c r="B168" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="18"/>
+      <c r="B169" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="6"/>
+      <c r="B171" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="16"/>
+      <c r="B173" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="16"/>
+      <c r="B174" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="18"/>
+      <c r="B175" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="6"/>
+      <c r="B177" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="16"/>
+      <c r="B179" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="18"/>
+      <c r="B180" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="20"/>
+      <c r="B182" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="6"/>
+      <c r="B183" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="18"/>
+      <c r="B185" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="6"/>
+      <c r="B187" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C187" s="0"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="16"/>
+      <c r="B189" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="16"/>
+      <c r="B190" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="16"/>
+      <c r="B191" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="16"/>
+      <c r="B192" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="18"/>
+      <c r="B193" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2050,48 +2706,48 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="26"/>
       <c r="B3" s="26" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26"/>
       <c r="B4" s="26" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26"/>
       <c r="B6" s="26" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="26"/>
       <c r="B7" s="26" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/zServicos.xlsx
+++ b/zServicos.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="276">
   <si>
     <t xml:space="preserve">Servicio refactorizado</t>
   </si>
@@ -329,6 +329,12 @@
     <t xml:space="preserve">Mismo comportamiento en </t>
   </si>
   <si>
+    <t xml:space="preserve">7min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misma operación, similitud en los mensajes</t>
+  </si>
+  <si>
     <t xml:space="preserve">ControlElemento</t>
   </si>
   <si>
@@ -356,9 +362,18 @@
     <t xml:space="preserve">CobranzaClientesPorZona</t>
   </si>
   <si>
+    <t xml:space="preserve">6min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre y cantidad de servicios, comportamiento en los servicios</t>
+  </si>
+  <si>
     <t xml:space="preserve">CobranzaPorZonaMes</t>
   </si>
   <si>
+    <t xml:space="preserve">PagadoCtaCtePorAcreedorYFecha</t>
+  </si>
+  <si>
     <t xml:space="preserve">CuentasElemento</t>
   </si>
   <si>
@@ -626,9 +641,6 @@
     <t xml:space="preserve">ListaContabilizaBorraCaja</t>
   </si>
   <si>
-    <t xml:space="preserve">7min</t>
-  </si>
-  <si>
     <t xml:space="preserve">LibroVentas</t>
   </si>
   <si>
@@ -762,12 +774,6 @@
   </si>
   <si>
     <t xml:space="preserve">DeudoresQueExcedenTope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misma operación, similitud en los mensajes</t>
   </si>
   <si>
     <t xml:space="preserve">MercaderiaAEntregar</t>
@@ -1204,18 +1210,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.0607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.5951417004049"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.7368421052632"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1246,114 +1252,170 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
@@ -1383,18 +1445,25 @@
       <c r="D22" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9"/>
@@ -1418,24 +1487,36 @@
       <c r="B26" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="11" t="s">
         <v>42</v>
       </c>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
@@ -1444,12 +1525,18 @@
       <c r="B30" s="13" t="s">
         <v>45</v>
       </c>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="14" t="s">
         <v>46</v>
       </c>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
@@ -1458,18 +1545,27 @@
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="11" t="s">
         <v>49</v>
       </c>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
@@ -1484,48 +1580,70 @@
       <c r="D35" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="E35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
         <v>58</v>
       </c>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>60</v>
       </c>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
         <v>61</v>
       </c>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="9"/>
@@ -1549,18 +1667,27 @@
       <c r="B44" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
@@ -1569,90 +1696,135 @@
       <c r="B47" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8"/>
       <c r="B48" s="8" t="s">
         <v>72</v>
       </c>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
         <v>74</v>
       </c>
+      <c r="C50" s="0"/>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
         <v>75</v>
       </c>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
         <v>77</v>
       </c>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
         <v>78</v>
       </c>
+      <c r="C54" s="0"/>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
         <v>79</v>
       </c>
+      <c r="C55" s="0"/>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
         <v>81</v>
       </c>
+      <c r="C57" s="0"/>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>82</v>
       </c>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
         <v>84</v>
       </c>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
@@ -1667,12 +1839,16 @@
       <c r="D62" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="E62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
@@ -1685,6 +1861,7 @@
       <c r="D64" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
@@ -1697,6 +1874,7 @@
       <c r="D65" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
@@ -1711,16 +1889,20 @@
       <c r="D66" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="E66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
         <v>99</v>
       </c>
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -1734,946 +1916,1301 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="D69" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="E69" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="B70" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>105</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C71" s="0"/>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>106</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C72" s="0"/>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C73" s="0"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="0"/>
+      <c r="D74" s="0"/>
+      <c r="E74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5" t="s">
         <v>110</v>
       </c>
+      <c r="C75" s="0"/>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="B76" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4" t="s">
-        <v>114</v>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="0"/>
+      <c r="E78" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="A79" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="0"/>
+      <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>116</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C80" s="0"/>
+      <c r="D80" s="0"/>
+      <c r="E80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C81" s="0"/>
+      <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>118</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C82" s="0"/>
+      <c r="D82" s="0"/>
+      <c r="E82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="0"/>
+      <c r="D83" s="0"/>
+      <c r="E83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="0"/>
+      <c r="D84" s="0"/>
+      <c r="E84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="0"/>
+      <c r="D85" s="0"/>
+      <c r="E85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D85" s="17"/>
-    </row>
-    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16" t="s">
-        <v>124</v>
-      </c>
+      <c r="E86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="16"/>
       <c r="B87" s="16" t="s">
-        <v>125</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C87" s="0"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="16"/>
       <c r="B88" s="16" t="s">
-        <v>126</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C88" s="0"/>
+      <c r="D88" s="0"/>
+      <c r="E88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="16"/>
       <c r="B89" s="16" t="s">
-        <v>127</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C89" s="0"/>
+      <c r="D89" s="0"/>
+      <c r="E89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" s="0"/>
+      <c r="D90" s="0"/>
+      <c r="E90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="0"/>
+      <c r="D91" s="0"/>
+      <c r="E91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E90" s="1" t="s">
+      <c r="D92" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
     <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6" t="s">
-        <v>133</v>
-      </c>
+      <c r="A93" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="0"/>
+      <c r="D93" s="0"/>
+      <c r="E93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="A94" s="20"/>
+      <c r="B94" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="0"/>
+      <c r="D94" s="0"/>
+      <c r="E94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16" t="s">
-        <v>136</v>
-      </c>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="0"/>
+      <c r="D95" s="0"/>
+      <c r="E95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16" t="s">
-        <v>137</v>
-      </c>
+      <c r="A96" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="0"/>
+      <c r="D96" s="0"/>
+      <c r="E96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="16"/>
       <c r="B97" s="16" t="s">
-        <v>138</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C97" s="0"/>
+      <c r="D97" s="0"/>
+      <c r="E97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18" t="s">
-        <v>139</v>
-      </c>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="0"/>
+      <c r="D98" s="0"/>
+      <c r="E98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>141</v>
-      </c>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="0"/>
+      <c r="D99" s="0"/>
+      <c r="E99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22" t="s">
-        <v>142</v>
-      </c>
+      <c r="A100" s="18"/>
+      <c r="B100" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="0"/>
+      <c r="D100" s="0"/>
+      <c r="E100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22" t="s">
-        <v>143</v>
-      </c>
+      <c r="A101" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="0"/>
+      <c r="D101" s="0"/>
+      <c r="E101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="22"/>
       <c r="B102" s="22" t="s">
-        <v>144</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C102" s="0"/>
+      <c r="D102" s="0"/>
+      <c r="E102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="22"/>
       <c r="B103" s="22" t="s">
-        <v>145</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C103" s="0"/>
+      <c r="D103" s="0"/>
+      <c r="E103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="22"/>
       <c r="B104" s="22" t="s">
-        <v>146</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C104" s="0"/>
+      <c r="D104" s="0"/>
+      <c r="E104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="23"/>
-      <c r="B105" s="23" t="s">
-        <v>147</v>
-      </c>
+      <c r="A105" s="22"/>
+      <c r="B105" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" s="0"/>
+      <c r="D105" s="0"/>
+      <c r="E105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>149</v>
-      </c>
+      <c r="A106" s="22"/>
+      <c r="B106" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="0"/>
+      <c r="D106" s="0"/>
+      <c r="E106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="16"/>
-      <c r="B107" s="16" t="s">
-        <v>150</v>
-      </c>
+      <c r="A107" s="23"/>
+      <c r="B107" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" s="0"/>
+      <c r="D107" s="0"/>
+      <c r="E107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="16"/>
-      <c r="B108" s="16" t="s">
-        <v>151</v>
-      </c>
+      <c r="A108" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" s="0"/>
+      <c r="D108" s="0"/>
+      <c r="E108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="16"/>
       <c r="B109" s="16" t="s">
-        <v>152</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C109" s="0"/>
+      <c r="D109" s="0"/>
+      <c r="E109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="16"/>
       <c r="B110" s="16" t="s">
-        <v>153</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C110" s="0"/>
+      <c r="D110" s="0"/>
+      <c r="E110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="16"/>
       <c r="B111" s="16" t="s">
-        <v>154</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C111" s="0"/>
+      <c r="D111" s="0"/>
+      <c r="E111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="16"/>
       <c r="B112" s="16" t="s">
-        <v>155</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C112" s="0"/>
+      <c r="D112" s="0"/>
+      <c r="E112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="18"/>
-      <c r="B113" s="18" t="s">
-        <v>156</v>
-      </c>
+      <c r="A113" s="16"/>
+      <c r="B113" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" s="0"/>
+      <c r="D113" s="0"/>
+      <c r="E113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>158</v>
-      </c>
+      <c r="A114" s="16"/>
+      <c r="B114" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" s="0"/>
+      <c r="D114" s="0"/>
+      <c r="E114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6" t="s">
-        <v>159</v>
-      </c>
+      <c r="A115" s="18"/>
+      <c r="B115" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C115" s="0"/>
+      <c r="D115" s="0"/>
+      <c r="E115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="A116" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="B116" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C116" s="0"/>
+      <c r="D116" s="0"/>
+      <c r="E116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C117" s="0"/>
+      <c r="D117" s="0"/>
+      <c r="E117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="16"/>
-      <c r="B118" s="16" t="s">
-        <v>164</v>
-      </c>
+      <c r="E118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="24"/>
+      <c r="A119" s="16"/>
       <c r="B119" s="16" t="s">
-        <v>165</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C119" s="0"/>
+      <c r="D119" s="0"/>
+      <c r="E119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="16"/>
       <c r="B120" s="16" t="s">
-        <v>166</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C120" s="0"/>
+      <c r="D120" s="0"/>
+      <c r="E120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="16"/>
+      <c r="A121" s="24"/>
       <c r="B121" s="16" t="s">
-        <v>167</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C121" s="0"/>
+      <c r="D121" s="0"/>
+      <c r="E121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="16"/>
       <c r="B122" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C122" s="0"/>
       <c r="D122" s="0"/>
-      <c r="E122" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="E122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="16"/>
       <c r="B123" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C123" s="0"/>
       <c r="D123" s="0"/>
-      <c r="E123" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="E123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="B124" s="19" t="s">
+      <c r="A124" s="16"/>
+      <c r="B124" s="16" t="s">
         <v>173</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="0"/>
+      <c r="E124" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="16"/>
+      <c r="B125" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D125" s="0"/>
+      <c r="E125" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="20"/>
-      <c r="B125" s="20" t="s">
+      <c r="E126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="20"/>
+      <c r="B127" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" s="0"/>
+      <c r="D127" s="0"/>
+      <c r="E127" s="0"/>
+    </row>
+    <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="20"/>
+      <c r="B128" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C128" s="0"/>
+      <c r="D128" s="0"/>
+      <c r="E128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="19"/>
+      <c r="B129" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D129" s="0"/>
+      <c r="E129" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="20"/>
-      <c r="B126" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="19"/>
-      <c r="B127" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="16"/>
-      <c r="B129" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D129" s="17"/>
-    </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="16"/>
+      <c r="A130" s="16" t="s">
+        <v>184</v>
+      </c>
       <c r="B130" s="16" t="s">
-        <v>184</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="16"/>
       <c r="B131" s="16" t="s">
-        <v>185</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C131" s="0"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="16"/>
       <c r="B132" s="16" t="s">
-        <v>186</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C132" s="0"/>
+      <c r="D132" s="0"/>
+      <c r="E132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="16"/>
       <c r="B133" s="16" t="s">
-        <v>187</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C133" s="0"/>
+      <c r="D133" s="0"/>
+      <c r="E133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="16"/>
       <c r="B134" s="16" t="s">
-        <v>188</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C134" s="0"/>
+      <c r="D134" s="0"/>
+      <c r="E134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="16"/>
       <c r="B135" s="16" t="s">
-        <v>189</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C135" s="0"/>
+      <c r="D135" s="0"/>
+      <c r="E135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="16"/>
       <c r="B136" s="16" t="s">
-        <v>190</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C136" s="0"/>
+      <c r="D136" s="0"/>
+      <c r="E136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="16"/>
       <c r="B137" s="16" t="s">
-        <v>191</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C137" s="0"/>
+      <c r="D137" s="0"/>
+      <c r="E137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="16"/>
       <c r="B138" s="16" t="s">
-        <v>192</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C138" s="0"/>
+      <c r="D138" s="0"/>
+      <c r="E138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="16"/>
       <c r="B139" s="16" t="s">
-        <v>193</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C139" s="0"/>
+      <c r="D139" s="0"/>
+      <c r="E139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="16"/>
       <c r="B140" s="16" t="s">
-        <v>194</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C140" s="0"/>
+      <c r="D140" s="0"/>
+      <c r="E140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="16"/>
       <c r="B141" s="16" t="s">
-        <v>195</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C141" s="0"/>
+      <c r="D141" s="0"/>
+      <c r="E141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="16"/>
       <c r="B142" s="16" t="s">
-        <v>196</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C142" s="0"/>
+      <c r="D142" s="0"/>
+      <c r="E142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="16"/>
       <c r="B143" s="16" t="s">
-        <v>197</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C143" s="0"/>
+      <c r="D143" s="0"/>
+      <c r="E143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="16"/>
       <c r="B144" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C144" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C144" s="0"/>
+      <c r="D144" s="0"/>
+      <c r="E144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="16"/>
+      <c r="B145" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C145" s="0"/>
+      <c r="D145" s="0"/>
+      <c r="E145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="16"/>
+      <c r="B146" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E144" s="1" t="s">
+      <c r="D146" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="18"/>
-      <c r="B145" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E145" s="1" t="s">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="18"/>
+      <c r="B147" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="20"/>
-      <c r="B147" s="20" t="s">
-        <v>204</v>
-      </c>
-    </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="A148" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C148" s="0"/>
+      <c r="D148" s="0"/>
+      <c r="E148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>207</v>
-      </c>
+      <c r="A149" s="20"/>
+      <c r="B149" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C149" s="0"/>
+      <c r="D149" s="0"/>
+      <c r="E149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="16"/>
-      <c r="B150" s="16" t="s">
-        <v>208</v>
-      </c>
+      <c r="A150" s="6"/>
+      <c r="B150" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C150" s="0"/>
+      <c r="D150" s="0"/>
+      <c r="E150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="16"/>
-      <c r="B151" s="16" t="s">
-        <v>209</v>
-      </c>
+      <c r="A151" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C151" s="0"/>
+      <c r="D151" s="0"/>
+      <c r="E151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="16"/>
       <c r="B152" s="16" t="s">
-        <v>210</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C152" s="0"/>
+      <c r="D152" s="0"/>
+      <c r="E152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="16"/>
       <c r="B153" s="16" t="s">
-        <v>211</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C153" s="0"/>
+      <c r="D153" s="0"/>
+      <c r="E153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="16"/>
       <c r="B154" s="16" t="s">
-        <v>212</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C154" s="0"/>
+      <c r="D154" s="0"/>
+      <c r="E154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="18"/>
-      <c r="B155" s="18" t="s">
-        <v>213</v>
-      </c>
+      <c r="A155" s="16"/>
+      <c r="B155" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C155" s="0"/>
+      <c r="D155" s="0"/>
+      <c r="E155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>215</v>
-      </c>
+      <c r="A156" s="16"/>
+      <c r="B156" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C156" s="0"/>
+      <c r="D156" s="0"/>
+      <c r="E156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="20"/>
-      <c r="B157" s="20" t="s">
-        <v>216</v>
-      </c>
+      <c r="A157" s="18"/>
+      <c r="B157" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C157" s="0"/>
+      <c r="D157" s="0"/>
+      <c r="E157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="20"/>
-      <c r="B158" s="20" t="s">
-        <v>217</v>
-      </c>
+      <c r="A158" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C158" s="0"/>
+      <c r="D158" s="0"/>
+      <c r="E158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6" t="s">
-        <v>218</v>
-      </c>
+      <c r="A159" s="20"/>
+      <c r="B159" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C159" s="0"/>
+      <c r="D159" s="0"/>
+      <c r="E159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B160" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="A160" s="20"/>
+      <c r="B160" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="C160" s="0"/>
+      <c r="D160" s="0"/>
+      <c r="E160" s="0"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="16"/>
-      <c r="B161" s="16" t="s">
+      <c r="C161" s="0"/>
+      <c r="D161" s="0"/>
+      <c r="E161" s="0"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="15" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="16"/>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="15" t="s">
         <v>224</v>
       </c>
+      <c r="C162" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="16"/>
       <c r="B163" s="16" t="s">
-        <v>225</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C163" s="0"/>
+      <c r="D163" s="0"/>
+      <c r="E163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="16"/>
       <c r="B164" s="16" t="s">
-        <v>219</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="C164" s="0"/>
+      <c r="D164" s="0"/>
+      <c r="E164" s="0"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="16"/>
       <c r="B165" s="16" t="s">
-        <v>226</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C165" s="0"/>
+      <c r="D165" s="0"/>
+      <c r="E165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="16"/>
       <c r="B166" s="16" t="s">
-        <v>227</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C166" s="0"/>
+      <c r="D166" s="0"/>
+      <c r="E166" s="0"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="16"/>
       <c r="B167" s="16" t="s">
-        <v>228</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C167" s="0"/>
+      <c r="D167" s="0"/>
+      <c r="E167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="16"/>
       <c r="B168" s="16" t="s">
-        <v>229</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C168" s="0"/>
+      <c r="D168" s="0"/>
+      <c r="E168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="18"/>
-      <c r="B169" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C169" s="1" t="s">
+      <c r="A169" s="16"/>
+      <c r="B169" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C169" s="0"/>
+      <c r="D169" s="0"/>
+      <c r="E169" s="0"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="16"/>
+      <c r="B170" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C170" s="0"/>
+      <c r="D170" s="0"/>
+      <c r="E170" s="0"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="18"/>
+      <c r="B171" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E169" s="1" t="s">
+      <c r="D171" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="B170" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B172" s="15" t="s">
-        <v>235</v>
-      </c>
+      <c r="A172" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C172" s="0"/>
+      <c r="D172" s="0"/>
+      <c r="E172" s="0"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="16"/>
-      <c r="B173" s="16" t="s">
-        <v>236</v>
-      </c>
+      <c r="A173" s="6"/>
+      <c r="B173" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C173" s="0"/>
+      <c r="D173" s="0"/>
+      <c r="E173" s="0"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="16"/>
-      <c r="B174" s="16" t="s">
-        <v>237</v>
-      </c>
+      <c r="A174" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C174" s="0"/>
+      <c r="D174" s="0"/>
+      <c r="E174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="18"/>
-      <c r="B175" s="18" t="s">
-        <v>238</v>
-      </c>
+      <c r="A175" s="16"/>
+      <c r="B175" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C175" s="0"/>
+      <c r="D175" s="0"/>
+      <c r="E175" s="0"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="B176" s="19" t="s">
-        <v>240</v>
-      </c>
+      <c r="A176" s="16"/>
+      <c r="B176" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C176" s="0"/>
+      <c r="D176" s="0"/>
+      <c r="E176" s="0"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6" t="s">
-        <v>241</v>
-      </c>
+      <c r="A177" s="18"/>
+      <c r="B177" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C177" s="0"/>
+      <c r="D177" s="0"/>
+      <c r="E177" s="0"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B178" s="15" t="s">
+      <c r="A178" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D178" s="1" t="s">
+      <c r="B178" s="19" t="s">
         <v>244</v>
       </c>
+      <c r="C178" s="0"/>
+      <c r="D178" s="0"/>
+      <c r="E178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="16"/>
-      <c r="B179" s="16" t="s">
+      <c r="A179" s="6"/>
+      <c r="B179" s="6" t="s">
         <v>245</v>
       </c>
+      <c r="C179" s="0"/>
+      <c r="D179" s="0"/>
+      <c r="E179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="18"/>
-      <c r="B180" s="18" t="s">
+      <c r="A180" s="15" t="s">
         <v>246</v>
       </c>
+      <c r="B180" s="15" t="s">
+        <v>247</v>
+      </c>
       <c r="C180" s="1" t="s">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E180" s="0"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="16"/>
+      <c r="B181" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C181" s="0"/>
+      <c r="D181" s="0"/>
+      <c r="E181" s="0"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="18"/>
+      <c r="B182" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="B181" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="C181" s="1" t="s">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="20"/>
-      <c r="B182" s="20" t="s">
+      <c r="B183" s="19" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6" t="s">
+      <c r="C183" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E183" s="0"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="20"/>
+      <c r="B184" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="C184" s="0"/>
+      <c r="D184" s="0"/>
+      <c r="E184" s="0"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="6"/>
+      <c r="B185" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D185" s="0"/>
+      <c r="E185" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="B184" s="15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="18"/>
-      <c r="B185" s="18" t="s">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="15" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="19" t="s">
+      <c r="B186" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B186" s="19" t="s">
+      <c r="C186" s="0"/>
+      <c r="D186" s="0"/>
+      <c r="E186" s="0"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="18"/>
+      <c r="B187" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C187" s="0"/>
+      <c r="D187" s="0"/>
+      <c r="E187" s="0"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C187" s="0"/>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="15" t="s">
+      <c r="D188" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B188" s="15" t="s">
+      <c r="E188" s="0"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="6"/>
+      <c r="B189" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C189" s="0"/>
+      <c r="D189" s="0"/>
+      <c r="E189" s="0"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="16"/>
-      <c r="B189" s="16" t="s">
+      <c r="B190" s="15" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="16"/>
-      <c r="B190" s="16" t="s">
+      <c r="C190" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="D190" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E190" s="0"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="16"/>
       <c r="B191" s="16" t="s">
         <v>267</v>
       </c>
+      <c r="C191" s="0"/>
+      <c r="D191" s="0"/>
+      <c r="E191" s="0"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="16"/>
       <c r="B192" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="0"/>
+      <c r="D192" s="0"/>
+      <c r="E192" s="0"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="16"/>
+      <c r="B193" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C193" s="0"/>
+      <c r="D193" s="0"/>
+      <c r="E193" s="0"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="16"/>
+      <c r="B194" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E192" s="1" t="s">
+      <c r="D194" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="18"/>
-      <c r="B193" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="C193" s="1" t="s">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="18"/>
+      <c r="B195" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E193" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2706,48 +3243,48 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="26"/>
       <c r="B3" s="26" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26"/>
       <c r="B4" s="26" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26"/>
       <c r="B6" s="26" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="26"/>
       <c r="B7" s="26" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
